--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741493</v>
+        <v>111742250</v>
       </c>
       <c r="B8" t="n">
-        <v>77604</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331282.7667812487</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R8" t="n">
-        <v>6626634.652084536</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742256</v>
+        <v>111741430</v>
       </c>
       <c r="B9" t="n">
-        <v>79444</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,26 +1499,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1526,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331773.1827125447</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R9" t="n">
-        <v>6626566.53343309</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,18 +1579,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1604,10 +1603,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741661</v>
+        <v>111741759</v>
       </c>
       <c r="B10" t="n">
-        <v>94134</v>
+        <v>77604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,31 +1615,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6450</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1646,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331248.4265637345</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R10" t="n">
-        <v>6626657.912916132</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,6 +1692,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1721,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741430</v>
+        <v>111741395</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>73510</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,35 +1736,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1769,10 +1767,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331285.2567537006</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R11" t="n">
-        <v>6626678.453820148</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1817,12 +1815,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1841,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741405</v>
+        <v>111742261</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>94125</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,26 +1861,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1884,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331300.7315557983</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R12" t="n">
-        <v>6626707.533622785</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,11 +1935,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1962,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741461</v>
+        <v>111741661</v>
       </c>
       <c r="B13" t="n">
-        <v>94851</v>
+        <v>94134</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1974,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2569</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331282.7667812487</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R13" t="n">
-        <v>6626634.652084536</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741381</v>
+        <v>111741493</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2091,25 +2091,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331269.3053187408</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R14" t="n">
-        <v>6626728.138093493</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741438</v>
+        <v>111742228</v>
       </c>
       <c r="B15" t="n">
-        <v>73634</v>
+        <v>90689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2207,25 +2207,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6426</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331285.2567537006</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R15" t="n">
-        <v>6626678.453820148</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111742228</v>
+        <v>111741735</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>73689</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2327,21 +2327,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>308</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331723.8827412428</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R16" t="n">
-        <v>6626661.637235454</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2400,6 +2400,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2427,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111742234</v>
+        <v>111741461</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>94851</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2439,30 +2444,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>2569</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2470,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331746.1491186697</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R17" t="n">
-        <v>6626673.250118625</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2543,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741735</v>
+        <v>111742256</v>
       </c>
       <c r="B18" t="n">
-        <v>73689</v>
+        <v>79444</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,21 +2565,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>308</v>
+        <v>1049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331238.0752669616</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R18" t="n">
-        <v>6626585.695077832</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2636,7 +2642,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2670,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111741759</v>
+        <v>111741468</v>
       </c>
       <c r="B19" t="n">
-        <v>77604</v>
+        <v>92683</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,26 +2686,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6450</v>
+        <v>2362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2707,10 +2714,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331225.6043252015</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R19" t="n">
-        <v>6626555.973579897</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2753,11 +2760,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2785,10 +2787,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741395</v>
+        <v>111741405</v>
       </c>
       <c r="B20" t="n">
-        <v>73510</v>
+        <v>73689</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,25 +2799,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6428</v>
+        <v>308</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2828,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331269.3053187408</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R20" t="n">
-        <v>6626728.138093493</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2878,7 +2880,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På klibbal</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2906,10 +2908,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111742261</v>
+        <v>111741438</v>
       </c>
       <c r="B21" t="n">
-        <v>94125</v>
+        <v>73634</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2918,31 +2920,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>6426</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2950,10 +2951,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331832.2172148526</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R21" t="n">
-        <v>6626574.972218169</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3023,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111742250</v>
+        <v>111741744</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3039,21 +3040,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3066,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331780.8802231384</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R22" t="n">
-        <v>6626591.424151366</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3112,6 +3113,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3139,10 +3145,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741744</v>
+        <v>111742234</v>
       </c>
       <c r="B23" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,21 +3161,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3182,10 +3188,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331225.6043252015</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R23" t="n">
-        <v>6626555.973579897</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3228,11 +3234,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3260,10 +3261,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741468</v>
+        <v>111741381</v>
       </c>
       <c r="B24" t="n">
-        <v>92683</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3272,31 +3273,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2362</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331282.7667812487</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R24" t="n">
-        <v>6626634.652084536</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742250</v>
+        <v>111742261</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>94125</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,26 +1383,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>54</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1410,10 +1411,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331780.8802231384</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R8" t="n">
-        <v>6626591.424151366</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741430</v>
+        <v>111741735</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>73689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,31 +1500,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1531,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331285.2567537006</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R9" t="n">
-        <v>6626678.453820148</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,12 +1575,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På gran</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1603,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741759</v>
+        <v>111741661</v>
       </c>
       <c r="B10" t="n">
-        <v>77604</v>
+        <v>94134</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,30 +1617,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6450</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1646,10 +1649,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331225.6043252015</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R10" t="n">
-        <v>6626555.973579897</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1692,11 +1695,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1722,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741395</v>
+        <v>111741430</v>
       </c>
       <c r="B11" t="n">
-        <v>73510</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,30 +1734,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1767,10 +1770,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331269.3053187408</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R11" t="n">
-        <v>6626728.138093493</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,18 +1818,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På klibbal</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1845,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742261</v>
+        <v>111741461</v>
       </c>
       <c r="B12" t="n">
-        <v>94125</v>
+        <v>94851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1854,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>2569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331832.2172148526</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R12" t="n">
-        <v>6626574.972218169</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,10 +1959,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741661</v>
+        <v>111741381</v>
       </c>
       <c r="B13" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,27 +1975,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2006,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331248.4265637345</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R13" t="n">
-        <v>6626657.912916132</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2079,10 +2075,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741493</v>
+        <v>111741744</v>
       </c>
       <c r="B14" t="n">
-        <v>77604</v>
+        <v>73689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2091,25 +2087,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6450</v>
+        <v>308</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331282.7667812487</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R14" t="n">
-        <v>6626634.652084536</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2168,6 +2164,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2195,10 +2196,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111742228</v>
+        <v>111742234</v>
       </c>
       <c r="B15" t="n">
-        <v>90689</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,21 +2212,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331723.8827412428</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R15" t="n">
-        <v>6626661.637235454</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,7 +2312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741735</v>
+        <v>111741405</v>
       </c>
       <c r="B16" t="n">
         <v>73689</v>
@@ -2354,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331238.0752669616</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R16" t="n">
-        <v>6626585.695077832</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2404,7 +2405,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2432,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741461</v>
+        <v>111741468</v>
       </c>
       <c r="B17" t="n">
-        <v>94851</v>
+        <v>92683</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2569</v>
+        <v>2362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2549,10 +2550,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111742256</v>
+        <v>111741493</v>
       </c>
       <c r="B18" t="n">
-        <v>79444</v>
+        <v>77604</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2561,25 +2562,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1049</v>
+        <v>6450</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2593,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331773.1827125447</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R18" t="n">
-        <v>6626566.53343309</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2638,11 +2639,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2670,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111741468</v>
+        <v>111742250</v>
       </c>
       <c r="B19" t="n">
-        <v>92683</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2682,31 +2678,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2362</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2714,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331282.7667812487</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R19" t="n">
-        <v>6626634.652084536</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2787,10 +2782,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741405</v>
+        <v>111741395</v>
       </c>
       <c r="B20" t="n">
-        <v>73689</v>
+        <v>73510</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2799,25 +2794,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>308</v>
+        <v>6428</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2830,10 +2825,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331300.7315557983</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R20" t="n">
-        <v>6626707.533622785</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,7 +2875,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2908,10 +2903,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741438</v>
+        <v>111742256</v>
       </c>
       <c r="B21" t="n">
-        <v>73634</v>
+        <v>79444</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2920,25 +2915,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6426</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2951,10 +2946,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331285.2567537006</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R21" t="n">
-        <v>6626678.453820148</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2997,6 +2992,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741744</v>
+        <v>111742228</v>
       </c>
       <c r="B22" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3040,21 +3040,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331225.6043252015</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R22" t="n">
-        <v>6626555.973579897</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3113,11 +3113,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3145,10 +3140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111742234</v>
+        <v>111741438</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>73634</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3157,25 +3152,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3188,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331746.1491186697</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R23" t="n">
-        <v>6626673.250118625</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3261,10 +3256,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741381</v>
+        <v>111741759</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3273,25 +3268,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3304,10 +3299,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331269.3053187408</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R24" t="n">
-        <v>6626728.138093493</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3350,6 +3345,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742261</v>
+        <v>111741395</v>
       </c>
       <c r="B8" t="n">
-        <v>94125</v>
+        <v>73510</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,31 +1379,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>54</v>
+        <v>6428</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1411,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331832.2172148526</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R8" t="n">
-        <v>6626574.972218169</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,6 +1456,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1484,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741735</v>
+        <v>111741759</v>
       </c>
       <c r="B9" t="n">
-        <v>73689</v>
+        <v>77604</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1500,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>308</v>
+        <v>6450</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331238.0752669616</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R9" t="n">
-        <v>6626585.695077832</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,7 +1581,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1605,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741661</v>
+        <v>111742234</v>
       </c>
       <c r="B10" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,27 +1625,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1649,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331248.4265637345</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R10" t="n">
-        <v>6626657.912916132</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1722,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741430</v>
+        <v>111742261</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>94125</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1738,31 +1741,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>54</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1770,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331285.2567537006</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R11" t="n">
-        <v>6626678.453820148</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1824,6 +1823,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741461</v>
+        <v>111742250</v>
       </c>
       <c r="B12" t="n">
-        <v>94851</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1854,31 +1854,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2569</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331282.7667812487</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R12" t="n">
-        <v>6626634.652084536</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1959,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741381</v>
+        <v>111741744</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1975,21 +1974,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331269.3053187408</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R13" t="n">
-        <v>6626728.138093493</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2048,6 +2047,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2075,10 +2079,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741744</v>
+        <v>111741430</v>
       </c>
       <c r="B14" t="n">
-        <v>73689</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2091,26 +2095,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2118,10 +2127,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331225.6043252015</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R14" t="n">
-        <v>6626555.973579897</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2166,18 +2175,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111742234</v>
+        <v>111741461</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>94851</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2208,30 +2211,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>2569</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2239,10 +2243,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331746.1491186697</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R15" t="n">
-        <v>6626673.250118625</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2312,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741405</v>
+        <v>111742228</v>
       </c>
       <c r="B16" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,21 +2332,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2355,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331300.7315557983</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R16" t="n">
-        <v>6626707.533622785</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2401,11 +2405,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2433,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741468</v>
+        <v>111741381</v>
       </c>
       <c r="B17" t="n">
-        <v>92683</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,31 +2444,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2362</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2477,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331282.7667812487</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R17" t="n">
-        <v>6626634.652084536</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2550,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741493</v>
+        <v>111741438</v>
       </c>
       <c r="B18" t="n">
-        <v>77604</v>
+        <v>73634</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2566,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6450</v>
+        <v>6426</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2593,10 +2591,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R18" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2666,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742250</v>
+        <v>111741405</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2682,21 +2680,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2709,10 +2707,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331780.8802231384</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R19" t="n">
-        <v>6626591.424151366</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,6 +2753,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2782,10 +2785,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741395</v>
+        <v>111741493</v>
       </c>
       <c r="B20" t="n">
-        <v>73510</v>
+        <v>77604</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2798,21 +2801,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6428</v>
+        <v>6450</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2825,10 +2828,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331269.3053187408</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R20" t="n">
-        <v>6626728.138093493</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2871,11 +2874,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2903,10 +2901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111742256</v>
+        <v>111741661</v>
       </c>
       <c r="B21" t="n">
-        <v>79444</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,26 +2917,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2946,10 +2945,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331773.1827125447</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R21" t="n">
-        <v>6626566.53343309</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2992,11 +2991,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,10 +3018,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111742228</v>
+        <v>111742256</v>
       </c>
       <c r="B22" t="n">
-        <v>90689</v>
+        <v>79444</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3040,21 +3034,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>1049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3067,10 +3061,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331723.8827412428</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R22" t="n">
-        <v>6626661.637235454</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3113,6 +3107,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3140,10 +3139,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741438</v>
+        <v>111741735</v>
       </c>
       <c r="B23" t="n">
-        <v>73634</v>
+        <v>73689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3152,25 +3151,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6426</v>
+        <v>308</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3183,10 +3182,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331285.2567537006</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R23" t="n">
-        <v>6626678.453820148</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3229,6 +3228,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3256,10 +3260,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741759</v>
+        <v>111741468</v>
       </c>
       <c r="B24" t="n">
-        <v>77604</v>
+        <v>92683</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3272,26 +3276,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6450</v>
+        <v>2362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3299,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331225.6043252015</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R24" t="n">
-        <v>6626555.973579897</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3345,11 +3350,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741395</v>
+        <v>111741405</v>
       </c>
       <c r="B8" t="n">
-        <v>73510</v>
+        <v>73689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6428</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331269.3053187408</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R8" t="n">
-        <v>6626728.138093493</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På klibbal</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741759</v>
+        <v>111742250</v>
       </c>
       <c r="B9" t="n">
-        <v>77604</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331225.6043252015</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R9" t="n">
-        <v>6626555.973579897</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,11 +1577,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742234</v>
+        <v>111741395</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>73510</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,25 +1616,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331746.1491186697</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R10" t="n">
-        <v>6626673.250118625</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,6 +1693,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1725,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742261</v>
+        <v>111741759</v>
       </c>
       <c r="B11" t="n">
-        <v>94125</v>
+        <v>77604</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1737,31 +1737,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>6450</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1769,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331832.2172148526</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R11" t="n">
-        <v>6626574.972218169</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,6 +1814,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1842,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742250</v>
+        <v>111741461</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>94851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1854,30 +1858,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>2569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1885,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331780.8802231384</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R12" t="n">
-        <v>6626591.424151366</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1958,10 +1963,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741744</v>
+        <v>111742261</v>
       </c>
       <c r="B13" t="n">
-        <v>73689</v>
+        <v>94125</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,26 +1979,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2001,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331225.6043252015</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R13" t="n">
-        <v>6626555.973579897</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,11 +2053,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2079,10 +2080,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741430</v>
+        <v>111742256</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,31 +2096,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2127,10 +2123,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331285.2567537006</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R14" t="n">
-        <v>6626678.453820148</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2175,12 +2171,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2199,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741461</v>
+        <v>111741381</v>
       </c>
       <c r="B15" t="n">
-        <v>94851</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,31 +2213,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2569</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2243,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331282.7667812487</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R15" t="n">
-        <v>6626634.652084536</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2316,10 +2317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111742228</v>
+        <v>111741661</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>94134</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,26 +2333,27 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2359,10 +2361,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331723.8827412428</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R16" t="n">
-        <v>6626661.637235454</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2432,10 +2434,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741381</v>
+        <v>111741430</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,26 +2450,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2475,10 +2482,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331269.3053187408</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R17" t="n">
-        <v>6626728.138093493</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2529,7 +2536,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2548,10 +2554,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741438</v>
+        <v>111741744</v>
       </c>
       <c r="B18" t="n">
-        <v>73634</v>
+        <v>73689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,25 +2566,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6426</v>
+        <v>308</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2591,10 +2597,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331285.2567537006</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R18" t="n">
-        <v>6626678.453820148</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2637,6 +2643,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2675,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111741405</v>
+        <v>111742228</v>
       </c>
       <c r="B19" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,21 +2691,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2707,10 +2718,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331300.7315557983</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R19" t="n">
-        <v>6626707.533622785</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2753,11 +2764,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2901,10 +2907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741661</v>
+        <v>111741735</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>73689</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2917,27 +2923,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2945,10 +2950,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331248.4265637345</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R21" t="n">
-        <v>6626657.912916132</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2991,6 +2996,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3018,10 +3028,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111742256</v>
+        <v>111741468</v>
       </c>
       <c r="B22" t="n">
-        <v>79444</v>
+        <v>92683</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3030,30 +3040,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>2362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3061,10 +3072,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331773.1827125447</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R22" t="n">
-        <v>6626566.53343309</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3107,11 +3118,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3139,10 +3145,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741735</v>
+        <v>111742234</v>
       </c>
       <c r="B23" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,21 +3161,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3182,10 +3188,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331238.0752669616</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R23" t="n">
-        <v>6626585.695077832</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3228,11 +3234,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3260,10 +3261,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741468</v>
+        <v>111741438</v>
       </c>
       <c r="B24" t="n">
-        <v>92683</v>
+        <v>73634</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3276,27 +3277,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2362</v>
+        <v>6426</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R24" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741405</v>
+        <v>111742250</v>
       </c>
       <c r="B8" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331300.7315557983</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R8" t="n">
-        <v>6626707.533622785</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1456,11 +1456,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742250</v>
+        <v>111742261</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>94125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,26 +1499,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>54</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1531,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331780.8802231384</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R9" t="n">
-        <v>6626591.424151366</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1725,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741759</v>
+        <v>111741468</v>
       </c>
       <c r="B11" t="n">
-        <v>77604</v>
+        <v>92683</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,26 +1737,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6450</v>
+        <v>2362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1768,10 +1765,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331225.6043252015</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R11" t="n">
-        <v>6626555.973579897</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,11 +1811,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1846,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741461</v>
+        <v>111741661</v>
       </c>
       <c r="B12" t="n">
-        <v>94851</v>
+        <v>94134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1850,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2569</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1890,10 +1882,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331282.7667812487</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R12" t="n">
-        <v>6626634.652084536</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1963,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742261</v>
+        <v>111742234</v>
       </c>
       <c r="B13" t="n">
-        <v>94125</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,27 +1971,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2007,10 +1998,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331832.2172148526</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R13" t="n">
-        <v>6626574.972218169</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2080,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742256</v>
+        <v>111741461</v>
       </c>
       <c r="B14" t="n">
-        <v>79444</v>
+        <v>94851</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2092,30 +2083,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1049</v>
+        <v>2569</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2123,10 +2115,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331773.1827125447</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R14" t="n">
-        <v>6626566.53343309</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2169,11 +2161,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2201,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741381</v>
+        <v>111741759</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,25 +2200,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2231,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331269.3053187408</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R15" t="n">
-        <v>6626728.138093493</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2290,6 +2277,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741661</v>
+        <v>111741493</v>
       </c>
       <c r="B16" t="n">
-        <v>94134</v>
+        <v>77604</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2329,31 +2321,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>6450</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2361,10 +2352,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331248.4265637345</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R16" t="n">
-        <v>6626657.912916132</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2434,10 +2425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741430</v>
+        <v>111741381</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2450,31 +2441,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2482,10 +2468,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331285.2567537006</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R17" t="n">
-        <v>6626678.453820148</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2536,6 +2522,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2554,10 +2541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741744</v>
+        <v>111742228</v>
       </c>
       <c r="B18" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2570,21 +2557,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2597,10 +2584,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331225.6043252015</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R18" t="n">
-        <v>6626555.973579897</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,11 +2630,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2675,10 +2657,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742228</v>
+        <v>111741430</v>
       </c>
       <c r="B19" t="n">
-        <v>90689</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2691,26 +2673,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2718,10 +2705,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331723.8827412428</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R19" t="n">
-        <v>6626661.637235454</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2772,7 +2759,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2791,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741493</v>
+        <v>111742256</v>
       </c>
       <c r="B20" t="n">
-        <v>77604</v>
+        <v>79444</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2803,25 +2789,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6450</v>
+        <v>1049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2834,10 +2820,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331282.7667812487</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R20" t="n">
-        <v>6626634.652084536</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,6 +2866,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3028,10 +3019,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741468</v>
+        <v>111741405</v>
       </c>
       <c r="B22" t="n">
-        <v>92683</v>
+        <v>73689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3040,31 +3031,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2362</v>
+        <v>308</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3072,10 +3062,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331282.7667812487</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R22" t="n">
-        <v>6626634.652084536</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3118,6 +3108,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3145,10 +3140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111742234</v>
+        <v>111741744</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3161,21 +3156,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3188,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331746.1491186697</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R23" t="n">
-        <v>6626673.250118625</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3234,6 +3229,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -2657,10 +2657,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111741430</v>
+        <v>111742256</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>79444</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,31 +2673,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2705,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331285.2567537006</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R19" t="n">
-        <v>6626678.453820148</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2753,12 +2748,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2777,10 +2778,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111742256</v>
+        <v>111741735</v>
       </c>
       <c r="B20" t="n">
-        <v>79444</v>
+        <v>73689</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2793,21 +2794,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1049</v>
+        <v>308</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2820,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331773.1827125447</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R20" t="n">
-        <v>6626566.53343309</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2870,7 +2871,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På barklös talltorraka</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2898,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741735</v>
+        <v>111741430</v>
       </c>
       <c r="B21" t="n">
-        <v>73689</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2914,26 +2915,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2941,10 +2947,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331238.0752669616</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R21" t="n">
-        <v>6626585.695077832</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2989,18 +2995,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>På gran</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742250</v>
+        <v>111741735</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331780.8802231384</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R8" t="n">
-        <v>6626591.424151366</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1456,6 +1456,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1483,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742261</v>
+        <v>111741395</v>
       </c>
       <c r="B9" t="n">
-        <v>94125</v>
+        <v>73510</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,31 +1500,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>6428</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1527,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331832.2172148526</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R9" t="n">
-        <v>6626574.972218169</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1573,6 +1577,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1600,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741395</v>
+        <v>111741493</v>
       </c>
       <c r="B10" t="n">
-        <v>73510</v>
+        <v>77604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,21 +1625,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6428</v>
+        <v>6450</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1643,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331269.3053187408</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R10" t="n">
-        <v>6626728.138093493</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1689,11 +1698,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1721,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741468</v>
+        <v>111741661</v>
       </c>
       <c r="B11" t="n">
-        <v>92683</v>
+        <v>94134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,25 +1737,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2362</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1765,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331282.7667812487</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R11" t="n">
-        <v>6626634.652084536</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1838,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741661</v>
+        <v>111742261</v>
       </c>
       <c r="B12" t="n">
-        <v>94134</v>
+        <v>94125</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1854,21 +1858,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1882,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331248.4265637345</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R12" t="n">
-        <v>6626657.912916132</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1959,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742234</v>
+        <v>111742256</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>79444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1975,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1998,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331746.1491186697</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R13" t="n">
-        <v>6626673.250118625</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2044,6 +2048,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,10 +2080,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741461</v>
+        <v>111741430</v>
       </c>
       <c r="B14" t="n">
-        <v>94851</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2083,31 +2092,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2569</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2115,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R14" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2169,7 +2182,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2188,10 +2200,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741759</v>
+        <v>111741405</v>
       </c>
       <c r="B15" t="n">
-        <v>77604</v>
+        <v>73689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2200,25 +2212,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6450</v>
+        <v>308</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2231,10 +2243,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331225.6043252015</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R15" t="n">
-        <v>6626555.973579897</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2281,7 +2293,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På liten lodyta</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2309,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741493</v>
+        <v>111741759</v>
       </c>
       <c r="B16" t="n">
         <v>77604</v>
@@ -2352,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331282.7667812487</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R16" t="n">
-        <v>6626634.652084536</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2398,6 +2410,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2425,7 +2442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741381</v>
+        <v>111742250</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2468,10 +2485,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331269.3053187408</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R17" t="n">
-        <v>6626728.138093493</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2541,10 +2558,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111742228</v>
+        <v>111741468</v>
       </c>
       <c r="B18" t="n">
-        <v>90689</v>
+        <v>92683</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2553,30 +2570,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>2362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2584,10 +2602,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331723.8827412428</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R18" t="n">
-        <v>6626661.637235454</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2657,10 +2675,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742256</v>
+        <v>111741381</v>
       </c>
       <c r="B19" t="n">
-        <v>79444</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,21 +2691,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2700,10 +2718,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331773.1827125447</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R19" t="n">
-        <v>6626566.53343309</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2746,11 +2764,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2778,10 +2791,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741735</v>
+        <v>111742234</v>
       </c>
       <c r="B20" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,21 +2807,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2834,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331238.0752669616</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R20" t="n">
-        <v>6626585.695077832</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,11 +2880,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2899,10 +2907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741430</v>
+        <v>111741744</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>73689</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,31 +2923,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2947,10 +2950,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331285.2567537006</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R21" t="n">
-        <v>6626678.453820148</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2995,12 +2998,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3019,10 +3028,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741405</v>
+        <v>111742228</v>
       </c>
       <c r="B22" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3035,21 +3044,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3062,10 +3071,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331300.7315557983</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R22" t="n">
-        <v>6626707.533622785</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3108,11 +3117,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3140,10 +3144,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741744</v>
+        <v>111741461</v>
       </c>
       <c r="B23" t="n">
-        <v>73689</v>
+        <v>94851</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3152,30 +3156,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>2569</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3183,10 +3188,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331225.6043252015</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R23" t="n">
-        <v>6626555.973579897</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3229,11 +3234,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1609,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741493</v>
+        <v>111741461</v>
       </c>
       <c r="B10" t="n">
-        <v>77604</v>
+        <v>94851</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,26 +1625,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6450</v>
+        <v>2569</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1725,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741661</v>
+        <v>111742250</v>
       </c>
       <c r="B11" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,27 +1742,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331248.4265637345</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R11" t="n">
-        <v>6626657.912916132</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742261</v>
+        <v>111742234</v>
       </c>
       <c r="B12" t="n">
-        <v>94125</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,27 +1858,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331832.2172148526</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R12" t="n">
-        <v>6626574.972218169</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1959,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742256</v>
+        <v>111741468</v>
       </c>
       <c r="B13" t="n">
-        <v>79444</v>
+        <v>92683</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,30 +1970,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1049</v>
+        <v>2362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331773.1827125447</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R13" t="n">
-        <v>6626566.53343309</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2048,11 +2048,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2080,10 +2075,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741430</v>
+        <v>111742256</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2096,31 +2091,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2128,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331285.2567537006</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R14" t="n">
-        <v>6626678.453820148</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2176,12 +2166,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2200,10 +2196,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741405</v>
+        <v>111742228</v>
       </c>
       <c r="B15" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,21 +2212,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2243,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331300.7315557983</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R15" t="n">
-        <v>6626707.533622785</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2289,11 +2285,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741759</v>
+        <v>111742261</v>
       </c>
       <c r="B16" t="n">
-        <v>77604</v>
+        <v>94125</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,30 +2324,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6450</v>
+        <v>54</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2364,10 +2356,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331225.6043252015</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R16" t="n">
-        <v>6626555.973579897</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2410,11 +2402,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2442,10 +2429,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111742250</v>
+        <v>111741493</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2454,25 +2441,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2485,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331780.8802231384</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R17" t="n">
-        <v>6626591.424151366</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2558,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741468</v>
+        <v>111741661</v>
       </c>
       <c r="B18" t="n">
-        <v>92683</v>
+        <v>94134</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2570,25 +2557,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2362</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2602,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331282.7667812487</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R18" t="n">
-        <v>6626634.652084536</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2791,10 +2778,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111742234</v>
+        <v>111741405</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2807,21 +2794,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2834,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331746.1491186697</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R20" t="n">
-        <v>6626673.250118625</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,6 +2867,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2907,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741744</v>
+        <v>111741759</v>
       </c>
       <c r="B21" t="n">
-        <v>73689</v>
+        <v>77604</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,25 +2911,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>308</v>
+        <v>6450</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3000,7 +2992,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På björkhögstubbe</t>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3028,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111742228</v>
+        <v>111741744</v>
       </c>
       <c r="B22" t="n">
-        <v>90689</v>
+        <v>73689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3044,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>308</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3071,10 +3063,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331723.8827412428</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R22" t="n">
-        <v>6626661.637235454</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3117,6 +3109,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3144,10 +3141,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741461</v>
+        <v>111741430</v>
       </c>
       <c r="B23" t="n">
-        <v>94851</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3156,31 +3153,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2569</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3188,10 +3189,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R23" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3242,7 +3243,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741735</v>
+        <v>111742234</v>
       </c>
       <c r="B8" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331238.0752669616</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R8" t="n">
-        <v>6626585.695077832</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1456,11 +1456,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741395</v>
+        <v>111741735</v>
       </c>
       <c r="B9" t="n">
-        <v>73510</v>
+        <v>73689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,25 +1495,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6428</v>
+        <v>308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331269.3053187408</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R9" t="n">
-        <v>6626728.138093493</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,7 +1576,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På klibbal</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1726,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742250</v>
+        <v>111741405</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,21 +1737,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331780.8802231384</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R11" t="n">
-        <v>6626591.424151366</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,6 +1810,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742234</v>
+        <v>111742250</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331746.1491186697</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R12" t="n">
-        <v>6626673.250118625</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741468</v>
+        <v>111741493</v>
       </c>
       <c r="B13" t="n">
-        <v>92683</v>
+        <v>77604</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,27 +1974,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2362</v>
+        <v>6450</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2075,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742256</v>
+        <v>111741430</v>
       </c>
       <c r="B14" t="n">
-        <v>79444</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2091,26 +2090,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2118,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331773.1827125447</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R14" t="n">
-        <v>6626566.53343309</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2166,18 +2170,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111742228</v>
+        <v>111741661</v>
       </c>
       <c r="B15" t="n">
-        <v>90689</v>
+        <v>94134</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,26 +2210,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2239,10 +2238,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331723.8827412428</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R15" t="n">
-        <v>6626661.637235454</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2312,10 +2311,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111742261</v>
+        <v>111742228</v>
       </c>
       <c r="B16" t="n">
-        <v>94125</v>
+        <v>90689</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,27 +2327,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2356,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331832.2172148526</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R16" t="n">
-        <v>6626574.972218169</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2429,10 +2427,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741493</v>
+        <v>111741438</v>
       </c>
       <c r="B17" t="n">
-        <v>77604</v>
+        <v>73634</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2443,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6450</v>
+        <v>6426</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2472,10 +2470,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R17" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2545,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741661</v>
+        <v>111742256</v>
       </c>
       <c r="B18" t="n">
-        <v>94134</v>
+        <v>79444</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2561,27 +2559,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>1049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2589,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331248.4265637345</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R18" t="n">
-        <v>6626657.912916132</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,6 +2632,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2662,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111741381</v>
+        <v>111742261</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>94125</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2678,26 +2680,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>54</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2705,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331269.3053187408</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R19" t="n">
-        <v>6626728.138093493</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2778,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741405</v>
+        <v>111741468</v>
       </c>
       <c r="B20" t="n">
-        <v>73689</v>
+        <v>92683</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,30 +2793,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>308</v>
+        <v>2362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2821,10 +2825,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331300.7315557983</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R20" t="n">
-        <v>6626707.533622785</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,11 +2871,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3020,10 +3019,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741744</v>
+        <v>111741395</v>
       </c>
       <c r="B22" t="n">
-        <v>73689</v>
+        <v>73510</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,25 +3031,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>308</v>
+        <v>6428</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3063,10 +3062,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331225.6043252015</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R22" t="n">
-        <v>6626555.973579897</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3113,7 +3112,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På björkhögstubbe</t>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3141,10 +3140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741430</v>
+        <v>111741381</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3157,31 +3156,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3189,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331285.2567537006</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R23" t="n">
-        <v>6626678.453820148</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3243,6 +3237,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3261,10 +3256,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741438</v>
+        <v>111741744</v>
       </c>
       <c r="B24" t="n">
-        <v>73634</v>
+        <v>73689</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3273,25 +3268,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6426</v>
+        <v>308</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3304,10 +3299,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331285.2567537006</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R24" t="n">
-        <v>6626678.453820148</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3350,6 +3345,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742234</v>
+        <v>111741381</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331746.1491186697</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R8" t="n">
-        <v>6626673.250118625</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741735</v>
+        <v>111742256</v>
       </c>
       <c r="B9" t="n">
-        <v>73689</v>
+        <v>79444</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>308</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331238.0752669616</v>
+        <v>331773.1827125447</v>
       </c>
       <c r="R9" t="n">
-        <v>6626585.695077832</v>
+        <v>6626566.53343309</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111741461</v>
+        <v>111742234</v>
       </c>
       <c r="B10" t="n">
-        <v>94851</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,31 +1616,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2569</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331282.7667812487</v>
+        <v>331746.1491186697</v>
       </c>
       <c r="R10" t="n">
-        <v>6626634.652084536</v>
+        <v>6626673.250118625</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741405</v>
+        <v>111741461</v>
       </c>
       <c r="B11" t="n">
-        <v>73689</v>
+        <v>94851</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,30 +1732,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>308</v>
+        <v>2569</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331300.7315557983</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R11" t="n">
-        <v>6626707.533622785</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,11 +1810,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1842,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742250</v>
+        <v>111741744</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,21 +1853,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331780.8802231384</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R12" t="n">
-        <v>6626591.424151366</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,6 +1926,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1958,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741493</v>
+        <v>111741430</v>
       </c>
       <c r="B13" t="n">
-        <v>77604</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1970,30 +1970,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6450</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2001,10 +2006,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331282.7667812487</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R13" t="n">
-        <v>6626634.652084536</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2055,7 +2060,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2074,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741430</v>
+        <v>111741395</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>73510</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2086,35 +2090,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2122,10 +2121,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331285.2567537006</v>
+        <v>331269.3053187408</v>
       </c>
       <c r="R14" t="n">
-        <v>6626678.453820148</v>
+        <v>6626728.138093493</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2170,12 +2169,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2194,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111741661</v>
+        <v>111742261</v>
       </c>
       <c r="B15" t="n">
-        <v>94134</v>
+        <v>94125</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,21 +2215,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2243,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331248.4265637345</v>
+        <v>331832.2172148526</v>
       </c>
       <c r="R15" t="n">
-        <v>6626657.912916132</v>
+        <v>6626574.972218169</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111742228</v>
+        <v>111741438</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>73634</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2323,25 +2328,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>6426</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331723.8827412428</v>
+        <v>331285.2567537006</v>
       </c>
       <c r="R16" t="n">
-        <v>6626661.637235454</v>
+        <v>6626678.453820148</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2427,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111741438</v>
+        <v>111742228</v>
       </c>
       <c r="B17" t="n">
-        <v>73634</v>
+        <v>90689</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2439,25 +2444,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6426</v>
+        <v>5966</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2470,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331285.2567537006</v>
+        <v>331723.8827412428</v>
       </c>
       <c r="R17" t="n">
-        <v>6626678.453820148</v>
+        <v>6626661.637235454</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2543,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111742256</v>
+        <v>111741661</v>
       </c>
       <c r="B18" t="n">
-        <v>79444</v>
+        <v>94134</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,26 +2564,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1049</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2586,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331773.1827125447</v>
+        <v>331248.4265637345</v>
       </c>
       <c r="R18" t="n">
-        <v>6626566.53343309</v>
+        <v>6626657.912916132</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2632,11 +2638,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742261</v>
+        <v>111742250</v>
       </c>
       <c r="B19" t="n">
-        <v>94125</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,27 +2681,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331832.2172148526</v>
+        <v>331780.8802231384</v>
       </c>
       <c r="R19" t="n">
-        <v>6626574.972218169</v>
+        <v>6626591.424151366</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741759</v>
+        <v>111741493</v>
       </c>
       <c r="B21" t="n">
         <v>77604</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331225.6043252015</v>
+        <v>331282.7667812487</v>
       </c>
       <c r="R21" t="n">
-        <v>6626555.973579897</v>
+        <v>6626634.652084536</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2987,11 +2987,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3019,10 +3014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741395</v>
+        <v>111741735</v>
       </c>
       <c r="B22" t="n">
-        <v>73510</v>
+        <v>73689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,25 +3026,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6428</v>
+        <v>308</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3062,10 +3057,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331269.3053187408</v>
+        <v>331238.0752669616</v>
       </c>
       <c r="R22" t="n">
-        <v>6626728.138093493</v>
+        <v>6626585.695077832</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3112,7 +3107,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På klibbal</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3140,10 +3135,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741381</v>
+        <v>111741759</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3152,25 +3147,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3183,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331269.3053187408</v>
+        <v>331225.6043252015</v>
       </c>
       <c r="R23" t="n">
-        <v>6626728.138093493</v>
+        <v>6626555.973579897</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3229,6 +3224,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741744</v>
+        <v>111741405</v>
       </c>
       <c r="B24" t="n">
         <v>73689</v>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331225.6043252015</v>
+        <v>331300.7315557983</v>
       </c>
       <c r="R24" t="n">
-        <v>6626555.973579897</v>
+        <v>6626707.533622785</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På björkhögstubbe</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3374,6 +3374,243 @@
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112206757</v>
+      </c>
+      <c r="B25" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Väst Eketjärn, Vrm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>331855.5938773559</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6626622.374123438</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Roger Gran</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Roger Gran, Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112206655</v>
+      </c>
+      <c r="B26" t="n">
+        <v>94125</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>54</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Skogstrappmossa</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Anastrophyllum michauxii</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(F.Weber.) H.Buch</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Öst Rövattnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>331280.0663102404</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6626608.526407591</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På västvänd lodyta mot öppet kärr</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Roger Gran</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Roger Gran, Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741381</v>
+        <v>111741461</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>94851</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,30 +1379,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2569</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1410,10 +1411,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331269.3053187408</v>
+        <v>331283</v>
       </c>
       <c r="R8" t="n">
-        <v>6626728.138093493</v>
+        <v>6626635</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1443,19 +1444,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1483,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742256</v>
+        <v>111741661</v>
       </c>
       <c r="B9" t="n">
-        <v>79444</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,26 +1490,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1526,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331773.1827125447</v>
+        <v>331248</v>
       </c>
       <c r="R9" t="n">
-        <v>6626566.53343309</v>
+        <v>6626658</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1559,24 +1551,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742234</v>
+        <v>111741395</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>73510</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,25 +1593,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1647,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331746.1491186697</v>
+        <v>331269</v>
       </c>
       <c r="R10" t="n">
-        <v>6626673.250118625</v>
+        <v>6626728</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1680,19 +1657,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På klibbal</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,10 +1692,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111741461</v>
+        <v>111741468</v>
       </c>
       <c r="B11" t="n">
-        <v>94851</v>
+        <v>92683</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,21 +1708,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2569</v>
+        <v>2362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331282.7667812487</v>
+        <v>331283</v>
       </c>
       <c r="R11" t="n">
-        <v>6626634.652084536</v>
+        <v>6626635</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,19 +1769,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1837,10 +1799,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741744</v>
+        <v>111741493</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>77604</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1849,25 +1811,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>6450</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1842,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331225.6043252015</v>
+        <v>331283</v>
       </c>
       <c r="R12" t="n">
-        <v>6626555.973579897</v>
+        <v>6626635</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1913,24 +1875,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1958,10 +1905,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741430</v>
+        <v>111741735</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>73689</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,31 +1921,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2006,10 +1948,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331285.2567537006</v>
+        <v>331238</v>
       </c>
       <c r="R13" t="n">
-        <v>6626678.453820148</v>
+        <v>6626586</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2039,19 +1981,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2060,6 +1997,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2078,10 +2016,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741395</v>
+        <v>111741405</v>
       </c>
       <c r="B14" t="n">
-        <v>73510</v>
+        <v>73689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2028,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6428</v>
+        <v>308</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2121,10 +2059,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331269.3053187408</v>
+        <v>331301</v>
       </c>
       <c r="R14" t="n">
-        <v>6626728.138093493</v>
+        <v>6626708</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2154,24 +2092,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På klibbal</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2243,10 +2171,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331832.2172148526</v>
+        <v>331832</v>
       </c>
       <c r="R15" t="n">
-        <v>6626574.972218169</v>
+        <v>6626575</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2276,19 +2204,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2316,10 +2234,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111741438</v>
+        <v>111742250</v>
       </c>
       <c r="B16" t="n">
-        <v>73634</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,25 +2246,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2359,10 +2277,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331285.2567537006</v>
+        <v>331781</v>
       </c>
       <c r="R16" t="n">
-        <v>6626678.453820148</v>
+        <v>6626591</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2392,19 +2310,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2432,10 +2340,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111742228</v>
+        <v>111742256</v>
       </c>
       <c r="B17" t="n">
-        <v>90689</v>
+        <v>79444</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,21 +2356,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5966</v>
+        <v>1049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331723.8827412428</v>
+        <v>331773</v>
       </c>
       <c r="R17" t="n">
-        <v>6626661.637235454</v>
+        <v>6626567</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,19 +2416,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2548,10 +2451,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741661</v>
+        <v>111741430</v>
       </c>
       <c r="B18" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,27 +2467,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2592,10 +2499,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331248.4265637345</v>
+        <v>331285</v>
       </c>
       <c r="R18" t="n">
-        <v>6626657.912916132</v>
+        <v>6626678</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2625,28 +2532,17 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2665,10 +2561,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742250</v>
+        <v>111742228</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,21 +2577,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2708,10 +2604,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331780.8802231384</v>
+        <v>331724</v>
       </c>
       <c r="R19" t="n">
-        <v>6626591.424151366</v>
+        <v>6626662</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2741,19 +2637,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2781,10 +2667,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741468</v>
+        <v>111741759</v>
       </c>
       <c r="B20" t="n">
-        <v>92683</v>
+        <v>77604</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,27 +2683,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2362</v>
+        <v>6450</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2825,10 +2710,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331282.7667812487</v>
+        <v>331226</v>
       </c>
       <c r="R20" t="n">
-        <v>6626634.652084536</v>
+        <v>6626556</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2858,19 +2743,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2898,10 +2778,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111741493</v>
+        <v>111742234</v>
       </c>
       <c r="B21" t="n">
-        <v>77604</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2910,25 +2790,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2941,10 +2821,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331282.7667812487</v>
+        <v>331746</v>
       </c>
       <c r="R21" t="n">
-        <v>6626634.652084536</v>
+        <v>6626673</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2974,19 +2854,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3014,10 +2884,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741735</v>
+        <v>111741438</v>
       </c>
       <c r="B22" t="n">
-        <v>73689</v>
+        <v>73634</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3026,25 +2896,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>308</v>
+        <v>6426</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3057,10 +2927,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331238.0752669616</v>
+        <v>331285</v>
       </c>
       <c r="R22" t="n">
-        <v>6626585.695077832</v>
+        <v>6626678</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3090,24 +2960,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3135,10 +2990,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741759</v>
+        <v>111741744</v>
       </c>
       <c r="B23" t="n">
-        <v>77604</v>
+        <v>73689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,25 +3002,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6450</v>
+        <v>308</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3033,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331225.6043252015</v>
+        <v>331226</v>
       </c>
       <c r="R23" t="n">
-        <v>6626555.973579897</v>
+        <v>6626556</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3211,24 +3066,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På liten lodyta</t>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3256,10 +3101,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741405</v>
+        <v>111741381</v>
       </c>
       <c r="B24" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3272,21 +3117,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3299,10 +3144,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331300.7315557983</v>
+        <v>331269</v>
       </c>
       <c r="R24" t="n">
-        <v>6626707.533622785</v>
+        <v>6626728</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3332,24 +3177,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3377,10 +3207,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112206757</v>
+        <v>112206655</v>
       </c>
       <c r="B25" t="n">
-        <v>99413</v>
+        <v>94125</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3389,25 +3219,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221235</v>
+        <v>54</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3417,14 +3247,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Väst Eketjärn, Vrm</t>
+          <t>Öst Rövattnet, Vrm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>331855.5938773559</v>
+        <v>331280</v>
       </c>
       <c r="R25" t="n">
-        <v>6626622.374123438</v>
+        <v>6626609</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3454,19 +3284,14 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På västvänd lodyta mot öppet kärr</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3493,10 +3318,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112206655</v>
+        <v>112206757</v>
       </c>
       <c r="B26" t="n">
-        <v>94125</v>
+        <v>99413</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3505,25 +3330,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>221235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3533,14 +3358,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Öst Rövattnet, Vrm</t>
+          <t>Väst Eketjärn, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>331280.0663102404</v>
+        <v>331856</v>
       </c>
       <c r="R26" t="n">
-        <v>6626608.526407591</v>
+        <v>6626622</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3570,24 +3395,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På västvänd lodyta mot öppet kärr</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111741461</v>
+        <v>111742234</v>
       </c>
       <c r="B8" t="n">
-        <v>94851</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,31 +1379,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2569</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1411,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331283</v>
+        <v>331746</v>
       </c>
       <c r="R8" t="n">
-        <v>6626635</v>
+        <v>6626673</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1474,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111741661</v>
+        <v>111741430</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,27 +1489,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1518,10 +1521,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331248</v>
+        <v>331285</v>
       </c>
       <c r="R9" t="n">
-        <v>6626658</v>
+        <v>6626678</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1562,7 +1565,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1799,10 +1801,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111741493</v>
+        <v>111741461</v>
       </c>
       <c r="B12" t="n">
-        <v>77604</v>
+        <v>94851</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1815,26 +1817,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6450</v>
+        <v>2569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1905,10 +1908,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111741735</v>
+        <v>111741381</v>
       </c>
       <c r="B13" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1921,21 +1924,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1948,10 +1951,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331238</v>
+        <v>331269</v>
       </c>
       <c r="R13" t="n">
-        <v>6626586</v>
+        <v>6626728</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1984,11 +1987,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2016,10 +2014,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111741405</v>
+        <v>111742256</v>
       </c>
       <c r="B14" t="n">
-        <v>73689</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2032,21 +2030,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>308</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2059,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331301</v>
+        <v>331773</v>
       </c>
       <c r="R14" t="n">
-        <v>6626708</v>
+        <v>6626567</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2099,7 +2097,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På björkhögstubbe i fuktigt läge</t>
+          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2127,10 +2125,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111742261</v>
+        <v>111741735</v>
       </c>
       <c r="B15" t="n">
-        <v>94125</v>
+        <v>73689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2143,27 +2141,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2171,10 +2168,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>331832</v>
+        <v>331238</v>
       </c>
       <c r="R15" t="n">
-        <v>6626575</v>
+        <v>6626586</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2207,6 +2204,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2234,10 +2236,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111742250</v>
+        <v>111741759</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2246,25 +2248,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2277,10 +2279,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>331781</v>
+        <v>331226</v>
       </c>
       <c r="R16" t="n">
-        <v>6626591</v>
+        <v>6626556</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2313,6 +2315,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På liten lodyta</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2340,10 +2347,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111742256</v>
+        <v>111741438</v>
       </c>
       <c r="B17" t="n">
-        <v>79444</v>
+        <v>73634</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2352,25 +2359,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1049</v>
+        <v>6426</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2390,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>331773</v>
+        <v>331285</v>
       </c>
       <c r="R17" t="n">
-        <v>6626567</v>
+        <v>6626678</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2419,11 +2426,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På barklös talltorraka</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2451,10 +2453,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111741430</v>
+        <v>111741493</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>77604</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2463,35 +2465,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6450</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2499,10 +2496,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>331285</v>
+        <v>331283</v>
       </c>
       <c r="R18" t="n">
-        <v>6626678</v>
+        <v>6626635</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2543,6 +2540,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2561,10 +2559,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111742228</v>
+        <v>111741744</v>
       </c>
       <c r="B19" t="n">
-        <v>90689</v>
+        <v>73689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2577,21 +2575,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>308</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2604,10 +2602,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>331724</v>
+        <v>331226</v>
       </c>
       <c r="R19" t="n">
-        <v>6626662</v>
+        <v>6626556</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2640,6 +2638,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2667,10 +2670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111741759</v>
+        <v>111741405</v>
       </c>
       <c r="B20" t="n">
-        <v>77604</v>
+        <v>73689</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2679,25 +2682,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6450</v>
+        <v>308</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2710,10 +2713,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>331226</v>
+        <v>331301</v>
       </c>
       <c r="R20" t="n">
-        <v>6626556</v>
+        <v>6626708</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2750,7 +2753,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På liten lodyta</t>
+          <t>På björkhögstubbe i fuktigt läge</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2778,10 +2781,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111742234</v>
+        <v>111742261</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>94125</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2794,26 +2797,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>54</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2821,10 +2825,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>331746</v>
+        <v>331832</v>
       </c>
       <c r="R21" t="n">
-        <v>6626673</v>
+        <v>6626575</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2884,10 +2888,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111741438</v>
+        <v>111741661</v>
       </c>
       <c r="B22" t="n">
-        <v>73634</v>
+        <v>94134</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2896,30 +2900,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6426</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2927,10 +2932,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>331285</v>
+        <v>331248</v>
       </c>
       <c r="R22" t="n">
-        <v>6626678</v>
+        <v>6626658</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2990,10 +2995,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111741744</v>
+        <v>111742228</v>
       </c>
       <c r="B23" t="n">
-        <v>73689</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3006,21 +3011,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3033,10 +3038,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>331226</v>
+        <v>331724</v>
       </c>
       <c r="R23" t="n">
-        <v>6626556</v>
+        <v>6626662</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3069,11 +3074,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På björkhögstubbe</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3101,7 +3101,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111741381</v>
+        <v>111742250</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>331269</v>
+        <v>331781</v>
       </c>
       <c r="R24" t="n">
-        <v>6626728</v>
+        <v>6626591</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112206655</v>
+        <v>112206757</v>
       </c>
       <c r="B25" t="n">
-        <v>94125</v>
+        <v>99850</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3219,25 +3219,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>54</v>
+        <v>221235</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3247,14 +3247,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Öst Rövattnet, Vrm</t>
+          <t>Väst Eketjärn, Vrm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>331280</v>
+        <v>331856</v>
       </c>
       <c r="R25" t="n">
-        <v>6626609</v>
+        <v>6626622</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3287,11 +3287,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På västvänd lodyta mot öppet kärr</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3318,10 +3313,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112206757</v>
+        <v>112206655</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>94278</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3330,25 +3325,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>54</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3358,14 +3353,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Väst Eketjärn, Vrm</t>
+          <t>Öst Rövattnet, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>331856</v>
+        <v>331280</v>
       </c>
       <c r="R26" t="n">
-        <v>6626622</v>
+        <v>6626609</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3400,6 +3395,11 @@
           <t>2023-09-19</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På västvänd lodyta mot öppet kärr</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3421,6 +3421,628 @@
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112395265</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>331818</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6626574</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112395266</v>
+      </c>
+      <c r="B28" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>331766</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6626669</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112395263</v>
+      </c>
+      <c r="B29" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>331849</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6626616</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112395269</v>
+      </c>
+      <c r="B30" t="n">
+        <v>73758</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6426</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kattfotslav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Felipes leucopellaeus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>331242</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6626564</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112395267</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>331734</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6626659</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112395271</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>331191</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6626654</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -3210,7 +3210,7 @@
         <v>112206757</v>
       </c>
       <c r="B25" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>112206655</v>
       </c>
       <c r="B26" t="n">
-        <v>94278</v>
+        <v>94292</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112395265</v>
+        <v>112395263</v>
       </c>
       <c r="B27" t="n">
-        <v>5135</v>
+        <v>99874</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3440,43 +3440,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105930</v>
+        <v>221235</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Påterud, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>331818</v>
+        <v>331849</v>
       </c>
       <c r="R27" t="n">
-        <v>6626574</v>
+        <v>6626616</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3517,7 +3508,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3536,10 +3526,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112395266</v>
+        <v>112395267</v>
       </c>
       <c r="B28" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3576,10 +3566,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>331766</v>
+        <v>331734</v>
       </c>
       <c r="R28" t="n">
-        <v>6626669</v>
+        <v>6626659</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3638,10 +3628,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112395263</v>
+        <v>112395269</v>
       </c>
       <c r="B29" t="n">
-        <v>99850</v>
+        <v>73772</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3654,21 +3644,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221235</v>
+        <v>6426</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3678,10 +3668,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>331849</v>
+        <v>331242</v>
       </c>
       <c r="R29" t="n">
-        <v>6626616</v>
+        <v>6626564</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3740,10 +3730,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112395269</v>
+        <v>112395265</v>
       </c>
       <c r="B30" t="n">
-        <v>73758</v>
+        <v>5135</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3756,34 +3746,43 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6426</v>
+        <v>105930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Påterud, Vrm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>331242</v>
+        <v>331818</v>
       </c>
       <c r="R30" t="n">
-        <v>6626564</v>
+        <v>6626574</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3824,6 +3823,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112395267</v>
+        <v>112395266</v>
       </c>
       <c r="B31" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>331734</v>
+        <v>331766</v>
       </c>
       <c r="R31" t="n">
-        <v>6626659</v>
+        <v>6626669</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3947,7 +3947,7 @@
         <v>112395271</v>
       </c>
       <c r="B32" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>

--- a/artfynd/A 63190-2018.xlsx
+++ b/artfynd/A 63190-2018.xlsx
@@ -3424,10 +3424,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112395263</v>
+        <v>112395267</v>
       </c>
       <c r="B27" t="n">
-        <v>99874</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3436,25 +3436,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221235</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>331849</v>
+        <v>331734</v>
       </c>
       <c r="R27" t="n">
-        <v>6626616</v>
+        <v>6626659</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112395267</v>
+        <v>112395265</v>
       </c>
       <c r="B28" t="n">
-        <v>77650</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3538,38 +3538,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Påterud, Vrm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>331734</v>
+        <v>331818</v>
       </c>
       <c r="R28" t="n">
-        <v>6626659</v>
+        <v>6626574</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3610,6 +3619,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3628,10 +3638,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112395269</v>
+        <v>112395263</v>
       </c>
       <c r="B29" t="n">
-        <v>73772</v>
+        <v>99874</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3644,21 +3654,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6426</v>
+        <v>221235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3668,10 +3678,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>331242</v>
+        <v>331849</v>
       </c>
       <c r="R29" t="n">
-        <v>6626564</v>
+        <v>6626616</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3730,10 +3740,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112395265</v>
+        <v>112395269</v>
       </c>
       <c r="B30" t="n">
-        <v>5135</v>
+        <v>73772</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3746,43 +3756,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>105930</v>
+        <v>6426</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Påterud, Vrm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>331818</v>
+        <v>331242</v>
       </c>
       <c r="R30" t="n">
-        <v>6626574</v>
+        <v>6626564</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3823,7 +3824,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112395266</v>
+        <v>112395271</v>
       </c>
       <c r="B31" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3854,25 +3854,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>331766</v>
+        <v>331191</v>
       </c>
       <c r="R31" t="n">
-        <v>6626669</v>
+        <v>6626654</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112395271</v>
+        <v>112395266</v>
       </c>
       <c r="B32" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3956,25 +3956,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>331191</v>
+        <v>331766</v>
       </c>
       <c r="R32" t="n">
-        <v>6626654</v>
+        <v>6626669</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
